--- a/order_template/pancancer_hotspot_mutation.xlsx
+++ b/order_template/pancancer_hotspot_mutation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\PrimerDesign\order_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TopGenProject\codes\172.16.10.9\prime-design\order_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF385F3-BCD3-4BC1-9764-4A0B2335CCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E89A377-5BAD-48CE-8F1D-2BCC0D8FA1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="323">
   <si>
     <t>CANCER_TYPE</t>
   </si>
@@ -1004,13 +1004,17 @@
   </si>
   <si>
     <t>AAGC</t>
+  </si>
+  <si>
+    <t>会于790M冲突</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1048,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1200,7 +1212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1221,6 +1233,7 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1527,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8075,11 +8088,11 @@
       </c>
     </row>
     <row r="143" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>32</v>
+      <c r="A143" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="C143" s="9" t="s">
         <v>72</v>
